--- a/prog/datagrafiks2.xlsx
+++ b/prog/datagrafiks2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Первый лист" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Первый лист" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,40 +499,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.222660819185816</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.222660819185816</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>366.7982457557449</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>592.446393604728</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.777339180814184</v>
       </c>
       <c r="K2" t="n">
-        <v>50.3</v>
+        <v>47.85467836162837</v>
       </c>
       <c r="L2" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -543,43 +543,43 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002006265306860436</v>
+        <v>1.965094688504363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002006265306860436</v>
+        <v>3.18775550769018</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6018795920581309</v>
+        <v>589.528406551309</v>
       </c>
       <c r="I3" t="n">
-        <v>2.664578231046521</v>
+        <v>937.41483076994</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007993734693139564</v>
+        <v>2.81224449230982</v>
       </c>
       <c r="K3" t="n">
-        <v>50.29598746938628</v>
+        <v>43.92448898461964</v>
       </c>
       <c r="L3" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.222660819185816</v>
       </c>
     </row>
     <row r="4">
@@ -587,43 +587,43 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.398678751672108</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.586434259362287</v>
+      </c>
+      <c r="H4" t="n">
+        <v>719.6036255016322</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1137.855246879237</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.413565740637711</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.12713148127543</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004347898962457761</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.006354164269318198</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.304369688737328</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.548611910227268</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0136458357306818</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50.28729167146136</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.006666666666666667</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.002006265306860436</v>
+        <v>3.187755507690179</v>
       </c>
     </row>
     <row r="5">
@@ -631,43 +631,43 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006133263806004272</v>
+        <v>2.650909832996646</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01248742807532247</v>
+        <v>8.237344092358933</v>
       </c>
       <c r="H5" t="n">
-        <v>1.839979141801282</v>
+        <v>795.2729498989938</v>
       </c>
       <c r="I5" t="n">
-        <v>5.837523974892507</v>
+        <v>1254.218635880355</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01751257192467752</v>
+        <v>3.762655907641066</v>
       </c>
       <c r="K5" t="n">
-        <v>50.27502514384935</v>
+        <v>33.82531181528213</v>
       </c>
       <c r="L5" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.006354164269318197</v>
+        <v>5.586434259362287</v>
       </c>
     </row>
     <row r="6">
@@ -675,43 +675,43 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007394493927692311</v>
+        <v>2.797425407810178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01988192200301478</v>
+        <v>11.03476950016911</v>
       </c>
       <c r="H6" t="n">
-        <v>2.218348178307693</v>
+        <v>839.2276223430533</v>
       </c>
       <c r="I6" t="n">
-        <v>6.706025998995072</v>
+        <v>1321.743499943629</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02011807799698521</v>
+        <v>3.965230499830888</v>
       </c>
       <c r="K6" t="n">
-        <v>50.26023615599397</v>
+        <v>28.23046099966178</v>
       </c>
       <c r="L6" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01248742807532247</v>
+        <v>8.237344092358933</v>
       </c>
     </row>
     <row r="7">
@@ -719,43 +719,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008258739502859635</v>
+        <v>2.882473767978727</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02814066150587442</v>
+        <v>13.91724326814784</v>
       </c>
       <c r="H7" t="n">
-        <v>2.47762185085789</v>
+        <v>864.7421303936183</v>
       </c>
       <c r="I7" t="n">
-        <v>7.286446164708531</v>
+        <v>1360.918910617387</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02185933849412559</v>
+        <v>4.082756731852161</v>
       </c>
       <c r="K7" t="n">
-        <v>50.24371867698825</v>
+        <v>22.46551346370433</v>
       </c>
       <c r="L7" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01988192200301478</v>
+        <v>11.03476950016911</v>
       </c>
     </row>
     <row r="8">
@@ -763,43 +763,43 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008841933556506983</v>
+        <v>2.931824114915832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0369825950623814</v>
+        <v>16.84906738306367</v>
       </c>
       <c r="H8" t="n">
-        <v>2.652580066952095</v>
+        <v>879.5472344747496</v>
       </c>
       <c r="I8" t="n">
-        <v>7.672468312539536</v>
+        <v>1383.644205645443</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02301740493761861</v>
+        <v>4.15093261693633</v>
       </c>
       <c r="K8" t="n">
-        <v>50.22603480987524</v>
+        <v>16.60186523387266</v>
       </c>
       <c r="L8" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02814066150587442</v>
+        <v>13.91724326814784</v>
       </c>
     </row>
     <row r="9">
@@ -807,43 +807,43 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07000000000000001</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009232086785321414</v>
+        <v>2.960454564572111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04621468184770281</v>
+        <v>19.80952194763578</v>
       </c>
       <c r="H9" t="n">
-        <v>2.769626035596424</v>
+        <v>888.1363693716334</v>
       </c>
       <c r="I9" t="n">
-        <v>7.928439384099063</v>
+        <v>1396.826017454739</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02378531815229719</v>
+        <v>4.190478052364218</v>
       </c>
       <c r="K9" t="n">
-        <v>50.2075706363046</v>
+        <v>10.68095610472844</v>
       </c>
       <c r="L9" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0369825950623814</v>
+        <v>16.84906738306367</v>
       </c>
     </row>
     <row r="10">
@@ -851,43 +851,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009491750652500233</v>
+        <v>2.977062579080823</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05570643250020305</v>
+        <v>22.7865845267166</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84752519575007</v>
+        <v>893.118773724247</v>
       </c>
       <c r="I10" t="n">
-        <v>8.097855833265653</v>
+        <v>1404.471824427799</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02429356749979696</v>
+        <v>4.213415473283397</v>
       </c>
       <c r="K10" t="n">
-        <v>50.18858713499959</v>
+        <v>4.726830946566793</v>
       </c>
       <c r="L10" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04621468184770281</v>
+        <v>19.80952194763578</v>
       </c>
     </row>
     <row r="11">
@@ -895,615 +895,43 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009664014915860594</v>
+        <v>2.986695981762962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06537044741606364</v>
+        <v>25.77328050847957</v>
       </c>
       <c r="H11" t="n">
-        <v>2.899204474758178</v>
+        <v>896.0087945288885</v>
       </c>
       <c r="I11" t="n">
-        <v>8.209850861312118</v>
+        <v>1408.906497173479</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02462955258393635</v>
+        <v>4.226719491520436</v>
       </c>
       <c r="K11" t="n">
-        <v>50.16925910516787</v>
+        <v>-1.246561016959131</v>
       </c>
       <c r="L11" t="n">
-        <v>50.0382</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05570643250020305</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00977806510096218</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.07514851251702583</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.933419530288654</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.283829160991388</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.02485148748297417</v>
-      </c>
-      <c r="K12" t="n">
-        <v>50.14970297496595</v>
-      </c>
-      <c r="L12" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.06537044741606364</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.009853475154627736</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.08500198767165357</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.956042546388321</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8.332670776115474</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.02499801232834642</v>
-      </c>
-      <c r="K13" t="n">
-        <v>50.12999602465669</v>
-      </c>
-      <c r="L13" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.03666666666666667</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.07514851251702583</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.009903294083435694</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.09490528175508926</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.970988225030708</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.364906081636907</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.02509471824491072</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50.11018943648982</v>
-      </c>
-      <c r="L14" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.08500198767165357</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.009936188286344013</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1048414700414333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.980856485903204</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.386176652855568</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0251585299585667</v>
-      </c>
-      <c r="K15" t="n">
-        <v>50.09031705991713</v>
-      </c>
-      <c r="L15" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.04333333333333333</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.09490528175508926</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.009957899649220675</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1147993696906539</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.987369894766203</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8.400210103115342</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.02520063030934603</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50.0704012606187</v>
-      </c>
-      <c r="L16" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.04666666666666667</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.1048414700414333</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.009972226527405734</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1247715962180597</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.99166795822172</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8.409467927313438</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.02522840378194031</v>
-      </c>
-      <c r="K17" t="n">
-        <v>50.05045680756388</v>
-      </c>
-      <c r="L17" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.1147993696906539</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.009981679059701895</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1347532752777616</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.994503717910568</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.415574907412807</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.02524672472223842</v>
-      </c>
-      <c r="K18" t="n">
-        <v>50.03049344944448</v>
-      </c>
-      <c r="L18" t="n">
-        <v>50.0382</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1247715962180597</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1603333333333333</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.006760703939256223</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1415139792170178</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.028211181776867</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.273118038771847</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01881935411631554</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50.01697204156596</v>
-      </c>
-      <c r="L19" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.05666666666666667</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.1347532752777616</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1606666666666667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.004707278397078604</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1462212576140964</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.412183519123581</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.815136350856749</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.01444540905257025</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50.00755748477181</v>
-      </c>
-      <c r="L20" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.1415139792170178</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.003373484244932265</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.1495947418590287</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.01204527347968</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.801752713657102</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.01140525814097131</v>
-      </c>
-      <c r="K21" t="n">
-        <v>50.00081051628194</v>
-      </c>
-      <c r="L21" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.06333333333333334</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.1462212576140964</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1613333333333333</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.002489951339242837</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1520846931982715</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.746985401772851</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.082880045020592</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.009248640135061777</v>
-      </c>
-      <c r="K22" t="n">
-        <v>49.99583061360346</v>
-      </c>
-      <c r="L22" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.1495947418590287</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.1616666666666666</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.001892818914266483</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.153977512112538</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5678456742799448</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.56305151804287</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.007689154554128609</v>
-      </c>
-      <c r="K23" t="n">
-        <v>49.99204497577492</v>
-      </c>
-      <c r="L23" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.1520846931982715</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.0003333333333333334</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1619999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.001481095618177521</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.1554586077307155</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.4443286854532563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.18046408976147</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.00654139226928441</v>
-      </c>
-      <c r="K24" t="n">
-        <v>49.98908278453857</v>
-      </c>
-      <c r="L24" t="n">
-        <v>49.992</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.07333333333333333</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.153977512112538</v>
+        <v>22.7865845267166</v>
       </c>
     </row>
   </sheetData>
